--- a/students.xlsx
+++ b/students.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252"/>
   </bookViews>
   <sheets>
-    <sheet name="Students" sheetId="1" r:id="rId1"/>
+    <sheet name="sheets1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -61,15 +61,6 @@
     <t>Parent Id</t>
   </si>
   <si>
-    <t>testImport@gmail.com</t>
-  </si>
-  <si>
-    <t>asd21@gmail.com</t>
-  </si>
-  <si>
-    <t>import 1</t>
-  </si>
-  <si>
     <t>import 2</t>
   </si>
   <si>
@@ -77,6 +68,15 @@
   </si>
   <si>
     <t>import2@uowmail.edu.au</t>
+  </si>
+  <si>
+    <t>1111@gmail.com</t>
+  </si>
+  <si>
+    <t>import 123</t>
+  </si>
+  <si>
+    <t>testImport123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,7 +506,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +402,7 @@
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
